--- a/grm/Hoja del Personaje.xlsx
+++ b/grm/Hoja del Personaje.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Software\Front-end based\GenesisRPG\grm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{191B9D04-42F8-464A-94A4-80EA148A0BDD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFDAFE00-500C-4DF9-9868-7E83F2AE2BD0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -526,19 +526,34 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="3" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -553,22 +568,7 @@
     <xf numFmtId="168" fontId="3" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="168" fontId="3" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="3" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -933,40 +933,40 @@
     <row r="2" spans="1:45" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="7"/>
       <c r="B2" s="9"/>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
       <c r="K2" s="9"/>
       <c r="L2" s="8"/>
       <c r="M2" s="9"/>
-      <c r="N2" s="17" t="s">
+      <c r="N2" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="17"/>
-      <c r="S2" s="17"/>
-      <c r="T2" s="17"/>
-      <c r="U2" s="17"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="15"/>
+      <c r="S2" s="15"/>
+      <c r="T2" s="15"/>
+      <c r="U2" s="15"/>
       <c r="V2" s="9"/>
       <c r="W2" s="8"/>
       <c r="X2" s="10"/>
-      <c r="Y2" s="17" t="s">
+      <c r="Y2" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="Z2" s="17"/>
-      <c r="AA2" s="17"/>
-      <c r="AB2" s="17"/>
-      <c r="AC2" s="17"/>
-      <c r="AD2" s="17"/>
+      <c r="Z2" s="15"/>
+      <c r="AA2" s="15"/>
+      <c r="AB2" s="15"/>
+      <c r="AC2" s="15"/>
+      <c r="AD2" s="15"/>
       <c r="AE2" s="10"/>
       <c r="AF2" s="8"/>
       <c r="AG2" s="8"/>
@@ -986,16 +986,16 @@
     <row r="3" spans="1:45" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7"/>
       <c r="B3" s="3"/>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="16" t="s">
+      <c r="D3" s="18"/>
+      <c r="E3" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
       <c r="I3" s="5" t="s">
         <v>1</v>
       </c>
@@ -1005,25 +1005,25 @@
       <c r="K3" s="2"/>
       <c r="L3" s="8"/>
       <c r="M3" s="3"/>
-      <c r="N3" s="18" t="s">
+      <c r="N3" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="O3" s="18"/>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="18"/>
-      <c r="R3" s="18"/>
-      <c r="S3" s="18"/>
-      <c r="T3" s="18"/>
-      <c r="U3" s="18"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="17"/>
+      <c r="Q3" s="17"/>
+      <c r="R3" s="17"/>
+      <c r="S3" s="17"/>
+      <c r="T3" s="17"/>
+      <c r="U3" s="17"/>
       <c r="V3" s="2"/>
       <c r="W3" s="8"/>
       <c r="X3" s="2"/>
-      <c r="Y3" s="19"/>
-      <c r="Z3" s="19"/>
-      <c r="AA3" s="19"/>
-      <c r="AB3" s="19"/>
-      <c r="AC3" s="19"/>
-      <c r="AD3" s="19"/>
+      <c r="Y3" s="16"/>
+      <c r="Z3" s="16"/>
+      <c r="AA3" s="16"/>
+      <c r="AB3" s="16"/>
+      <c r="AC3" s="16"/>
+      <c r="AD3" s="16"/>
       <c r="AE3" s="2"/>
       <c r="AF3" s="8"/>
       <c r="AG3" s="8"/>
@@ -1043,16 +1043,16 @@
     <row r="4" spans="1:45" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7"/>
       <c r="B4" s="3"/>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="16" t="s">
+      <c r="D4" s="18"/>
+      <c r="E4" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
       <c r="I4" s="5" t="s">
         <v>3</v>
       </c>
@@ -1062,23 +1062,23 @@
       <c r="K4" s="2"/>
       <c r="L4" s="8"/>
       <c r="M4" s="3"/>
-      <c r="N4" s="18"/>
-      <c r="O4" s="18"/>
-      <c r="P4" s="18"/>
-      <c r="Q4" s="18"/>
-      <c r="R4" s="18"/>
-      <c r="S4" s="18"/>
-      <c r="T4" s="18"/>
-      <c r="U4" s="18"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="17"/>
+      <c r="R4" s="17"/>
+      <c r="S4" s="17"/>
+      <c r="T4" s="17"/>
+      <c r="U4" s="17"/>
       <c r="V4" s="2"/>
       <c r="W4" s="8"/>
       <c r="X4" s="2"/>
-      <c r="Y4" s="19"/>
-      <c r="Z4" s="19"/>
-      <c r="AA4" s="19"/>
-      <c r="AB4" s="19"/>
-      <c r="AC4" s="19"/>
-      <c r="AD4" s="19"/>
+      <c r="Y4" s="16"/>
+      <c r="Z4" s="16"/>
+      <c r="AA4" s="16"/>
+      <c r="AB4" s="16"/>
+      <c r="AC4" s="16"/>
+      <c r="AD4" s="16"/>
       <c r="AE4" s="2"/>
       <c r="AF4" s="8"/>
       <c r="AG4" s="8"/>
@@ -1098,16 +1098,16 @@
     <row r="5" spans="1:45" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7"/>
       <c r="B5" s="3"/>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="16" t="s">
+      <c r="D5" s="18"/>
+      <c r="E5" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
       <c r="I5" s="5" t="s">
         <v>4</v>
       </c>
@@ -1117,23 +1117,23 @@
       <c r="K5" s="2"/>
       <c r="L5" s="8"/>
       <c r="M5" s="3"/>
-      <c r="N5" s="18"/>
-      <c r="O5" s="18"/>
-      <c r="P5" s="18"/>
-      <c r="Q5" s="18"/>
-      <c r="R5" s="18"/>
-      <c r="S5" s="18"/>
-      <c r="T5" s="18"/>
-      <c r="U5" s="18"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="17"/>
+      <c r="P5" s="17"/>
+      <c r="Q5" s="17"/>
+      <c r="R5" s="17"/>
+      <c r="S5" s="17"/>
+      <c r="T5" s="17"/>
+      <c r="U5" s="17"/>
       <c r="V5" s="2"/>
       <c r="W5" s="8"/>
       <c r="X5" s="2"/>
-      <c r="Y5" s="19"/>
-      <c r="Z5" s="19"/>
-      <c r="AA5" s="19"/>
-      <c r="AB5" s="19"/>
-      <c r="AC5" s="19"/>
-      <c r="AD5" s="19"/>
+      <c r="Y5" s="16"/>
+      <c r="Z5" s="16"/>
+      <c r="AA5" s="16"/>
+      <c r="AB5" s="16"/>
+      <c r="AC5" s="16"/>
+      <c r="AD5" s="16"/>
       <c r="AE5" s="2"/>
       <c r="AF5" s="8"/>
       <c r="AG5" s="8"/>
@@ -1153,16 +1153,16 @@
     <row r="6" spans="1:45" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
       <c r="B6" s="3"/>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="15"/>
-      <c r="E6" s="16" t="s">
+      <c r="D6" s="18"/>
+      <c r="E6" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
       <c r="I6" s="5" t="s">
         <v>5</v>
       </c>
@@ -1172,23 +1172,23 @@
       <c r="K6" s="2"/>
       <c r="L6" s="8"/>
       <c r="M6" s="3"/>
-      <c r="N6" s="18"/>
-      <c r="O6" s="18"/>
-      <c r="P6" s="18"/>
-      <c r="Q6" s="18"/>
-      <c r="R6" s="18"/>
-      <c r="S6" s="18"/>
-      <c r="T6" s="18"/>
-      <c r="U6" s="18"/>
+      <c r="N6" s="17"/>
+      <c r="O6" s="17"/>
+      <c r="P6" s="17"/>
+      <c r="Q6" s="17"/>
+      <c r="R6" s="17"/>
+      <c r="S6" s="17"/>
+      <c r="T6" s="17"/>
+      <c r="U6" s="17"/>
       <c r="V6" s="2"/>
       <c r="W6" s="8"/>
       <c r="X6" s="2"/>
-      <c r="Y6" s="19"/>
-      <c r="Z6" s="19"/>
-      <c r="AA6" s="19"/>
-      <c r="AB6" s="19"/>
-      <c r="AC6" s="19"/>
-      <c r="AD6" s="19"/>
+      <c r="Y6" s="16"/>
+      <c r="Z6" s="16"/>
+      <c r="AA6" s="16"/>
+      <c r="AB6" s="16"/>
+      <c r="AC6" s="16"/>
+      <c r="AD6" s="16"/>
       <c r="AE6" s="2"/>
       <c r="AF6" s="8"/>
       <c r="AG6" s="8"/>
@@ -1208,16 +1208,16 @@
     <row r="7" spans="1:45" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7"/>
       <c r="B7" s="3"/>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="D7" s="15"/>
-      <c r="E7" s="16" t="s">
+      <c r="D7" s="18"/>
+      <c r="E7" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
       <c r="I7" s="5" t="s">
         <v>24</v>
       </c>
@@ -1227,23 +1227,23 @@
       <c r="K7" s="2"/>
       <c r="L7" s="8"/>
       <c r="M7" s="3"/>
-      <c r="N7" s="18"/>
-      <c r="O7" s="18"/>
-      <c r="P7" s="18"/>
-      <c r="Q7" s="18"/>
-      <c r="R7" s="18"/>
-      <c r="S7" s="18"/>
-      <c r="T7" s="18"/>
-      <c r="U7" s="18"/>
+      <c r="N7" s="17"/>
+      <c r="O7" s="17"/>
+      <c r="P7" s="17"/>
+      <c r="Q7" s="17"/>
+      <c r="R7" s="17"/>
+      <c r="S7" s="17"/>
+      <c r="T7" s="17"/>
+      <c r="U7" s="17"/>
       <c r="V7" s="2"/>
       <c r="W7" s="8"/>
       <c r="X7" s="2"/>
-      <c r="Y7" s="19"/>
-      <c r="Z7" s="19"/>
-      <c r="AA7" s="19"/>
-      <c r="AB7" s="19"/>
-      <c r="AC7" s="19"/>
-      <c r="AD7" s="19"/>
+      <c r="Y7" s="16"/>
+      <c r="Z7" s="16"/>
+      <c r="AA7" s="16"/>
+      <c r="AB7" s="16"/>
+      <c r="AC7" s="16"/>
+      <c r="AD7" s="16"/>
       <c r="AE7" s="2"/>
       <c r="AF7" s="8"/>
       <c r="AG7" s="8"/>
@@ -1263,16 +1263,16 @@
     <row r="8" spans="1:45" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7"/>
       <c r="B8" s="2"/>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="15"/>
-      <c r="E8" s="16" t="s">
+      <c r="D8" s="18"/>
+      <c r="E8" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
       <c r="I8" s="5" t="s">
         <v>22</v>
       </c>
@@ -1282,23 +1282,23 @@
       <c r="K8" s="2"/>
       <c r="L8" s="8"/>
       <c r="M8" s="3"/>
-      <c r="N8" s="18"/>
-      <c r="O8" s="18"/>
-      <c r="P8" s="18"/>
-      <c r="Q8" s="18"/>
-      <c r="R8" s="18"/>
-      <c r="S8" s="18"/>
-      <c r="T8" s="18"/>
-      <c r="U8" s="18"/>
+      <c r="N8" s="17"/>
+      <c r="O8" s="17"/>
+      <c r="P8" s="17"/>
+      <c r="Q8" s="17"/>
+      <c r="R8" s="17"/>
+      <c r="S8" s="17"/>
+      <c r="T8" s="17"/>
+      <c r="U8" s="17"/>
       <c r="V8" s="3"/>
       <c r="W8" s="8"/>
       <c r="X8" s="2"/>
-      <c r="Y8" s="19"/>
-      <c r="Z8" s="19"/>
-      <c r="AA8" s="19"/>
-      <c r="AB8" s="19"/>
-      <c r="AC8" s="19"/>
-      <c r="AD8" s="19"/>
+      <c r="Y8" s="16"/>
+      <c r="Z8" s="16"/>
+      <c r="AA8" s="16"/>
+      <c r="AB8" s="16"/>
+      <c r="AC8" s="16"/>
+      <c r="AD8" s="16"/>
       <c r="AE8" s="2"/>
       <c r="AF8" s="8"/>
       <c r="AG8" s="8"/>
@@ -1318,16 +1318,16 @@
     <row r="9" spans="1:45" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7"/>
       <c r="B9" s="2"/>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="15"/>
-      <c r="E9" s="16" t="s">
+      <c r="D9" s="18"/>
+      <c r="E9" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
       <c r="I9" s="5" t="s">
         <v>23</v>
       </c>
@@ -1337,23 +1337,23 @@
       <c r="K9" s="2"/>
       <c r="L9" s="8"/>
       <c r="M9" s="3"/>
-      <c r="N9" s="18"/>
-      <c r="O9" s="18"/>
-      <c r="P9" s="18"/>
-      <c r="Q9" s="18"/>
-      <c r="R9" s="18"/>
-      <c r="S9" s="18"/>
-      <c r="T9" s="18"/>
-      <c r="U9" s="18"/>
+      <c r="N9" s="17"/>
+      <c r="O9" s="17"/>
+      <c r="P9" s="17"/>
+      <c r="Q9" s="17"/>
+      <c r="R9" s="17"/>
+      <c r="S9" s="17"/>
+      <c r="T9" s="17"/>
+      <c r="U9" s="17"/>
       <c r="V9" s="3"/>
       <c r="W9" s="8"/>
       <c r="X9" s="2"/>
-      <c r="Y9" s="19"/>
-      <c r="Z9" s="19"/>
-      <c r="AA9" s="19"/>
-      <c r="AB9" s="19"/>
-      <c r="AC9" s="19"/>
-      <c r="AD9" s="19"/>
+      <c r="Y9" s="16"/>
+      <c r="Z9" s="16"/>
+      <c r="AA9" s="16"/>
+      <c r="AB9" s="16"/>
+      <c r="AC9" s="16"/>
+      <c r="AD9" s="16"/>
       <c r="AE9" s="2"/>
       <c r="AF9" s="8"/>
       <c r="AG9" s="8"/>
@@ -1373,16 +1373,16 @@
     <row r="10" spans="1:45" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7"/>
       <c r="B10" s="2"/>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="15"/>
-      <c r="E10" s="16" t="s">
+      <c r="D10" s="18"/>
+      <c r="E10" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
       <c r="I10" s="5" t="s">
         <v>12</v>
       </c>
@@ -1392,23 +1392,23 @@
       <c r="K10" s="2"/>
       <c r="L10" s="8"/>
       <c r="M10" s="3"/>
-      <c r="N10" s="18"/>
-      <c r="O10" s="18"/>
-      <c r="P10" s="18"/>
-      <c r="Q10" s="18"/>
-      <c r="R10" s="18"/>
-      <c r="S10" s="18"/>
-      <c r="T10" s="18"/>
-      <c r="U10" s="18"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="17"/>
+      <c r="Q10" s="17"/>
+      <c r="R10" s="17"/>
+      <c r="S10" s="17"/>
+      <c r="T10" s="17"/>
+      <c r="U10" s="17"/>
       <c r="V10" s="3"/>
       <c r="W10" s="8"/>
       <c r="X10" s="2"/>
-      <c r="Y10" s="19"/>
-      <c r="Z10" s="19"/>
-      <c r="AA10" s="19"/>
-      <c r="AB10" s="19"/>
-      <c r="AC10" s="19"/>
-      <c r="AD10" s="19"/>
+      <c r="Y10" s="16"/>
+      <c r="Z10" s="16"/>
+      <c r="AA10" s="16"/>
+      <c r="AB10" s="16"/>
+      <c r="AC10" s="16"/>
+      <c r="AD10" s="16"/>
       <c r="AE10" s="2"/>
       <c r="AF10" s="8"/>
       <c r="AG10" s="8"/>
@@ -1428,16 +1428,16 @@
     <row r="11" spans="1:45" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7"/>
       <c r="B11" s="2"/>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="15"/>
-      <c r="E11" s="16" t="s">
+      <c r="D11" s="18"/>
+      <c r="E11" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
       <c r="I11" s="5" t="s">
         <v>13</v>
       </c>
@@ -1447,23 +1447,23 @@
       <c r="K11" s="2"/>
       <c r="L11" s="8"/>
       <c r="M11" s="3"/>
-      <c r="N11" s="18"/>
-      <c r="O11" s="18"/>
-      <c r="P11" s="18"/>
-      <c r="Q11" s="18"/>
-      <c r="R11" s="18"/>
-      <c r="S11" s="18"/>
-      <c r="T11" s="18"/>
-      <c r="U11" s="18"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="17"/>
+      <c r="R11" s="17"/>
+      <c r="S11" s="17"/>
+      <c r="T11" s="17"/>
+      <c r="U11" s="17"/>
       <c r="V11" s="3"/>
       <c r="W11" s="8"/>
       <c r="X11" s="2"/>
-      <c r="Y11" s="19"/>
-      <c r="Z11" s="19"/>
-      <c r="AA11" s="19"/>
-      <c r="AB11" s="19"/>
-      <c r="AC11" s="19"/>
-      <c r="AD11" s="19"/>
+      <c r="Y11" s="16"/>
+      <c r="Z11" s="16"/>
+      <c r="AA11" s="16"/>
+      <c r="AB11" s="16"/>
+      <c r="AC11" s="16"/>
+      <c r="AD11" s="16"/>
       <c r="AE11" s="2"/>
       <c r="AF11" s="8"/>
       <c r="AG11" s="8"/>
@@ -1505,12 +1505,12 @@
       <c r="V12" s="3"/>
       <c r="W12" s="8"/>
       <c r="X12" s="2"/>
-      <c r="Y12" s="19"/>
-      <c r="Z12" s="19"/>
-      <c r="AA12" s="19"/>
-      <c r="AB12" s="19"/>
-      <c r="AC12" s="19"/>
-      <c r="AD12" s="19"/>
+      <c r="Y12" s="16"/>
+      <c r="Z12" s="16"/>
+      <c r="AA12" s="16"/>
+      <c r="AB12" s="16"/>
+      <c r="AC12" s="16"/>
+      <c r="AD12" s="16"/>
       <c r="AE12" s="2"/>
       <c r="AF12" s="8"/>
       <c r="AG12" s="8"/>
@@ -1552,12 +1552,12 @@
       <c r="V13" s="8"/>
       <c r="W13" s="8"/>
       <c r="X13" s="2"/>
-      <c r="Y13" s="19"/>
-      <c r="Z13" s="19"/>
-      <c r="AA13" s="19"/>
-      <c r="AB13" s="19"/>
-      <c r="AC13" s="19"/>
-      <c r="AD13" s="19"/>
+      <c r="Y13" s="16"/>
+      <c r="Z13" s="16"/>
+      <c r="AA13" s="16"/>
+      <c r="AB13" s="16"/>
+      <c r="AC13" s="16"/>
+      <c r="AD13" s="16"/>
       <c r="AE13" s="2"/>
       <c r="AF13" s="8"/>
       <c r="AG13" s="8"/>
@@ -1577,38 +1577,38 @@
     <row r="14" spans="1:45" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="7"/>
       <c r="B14" s="9"/>
-      <c r="C14" s="17" t="s">
+      <c r="C14" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
       <c r="K14" s="9"/>
       <c r="L14" s="8"/>
       <c r="M14" s="9"/>
-      <c r="N14" s="17" t="s">
+      <c r="N14" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="O14" s="17"/>
-      <c r="P14" s="17"/>
-      <c r="Q14" s="17"/>
-      <c r="R14" s="17"/>
-      <c r="S14" s="17"/>
-      <c r="T14" s="17"/>
-      <c r="U14" s="17"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="15"/>
+      <c r="Q14" s="15"/>
+      <c r="R14" s="15"/>
+      <c r="S14" s="15"/>
+      <c r="T14" s="15"/>
+      <c r="U14" s="15"/>
       <c r="V14" s="9"/>
       <c r="W14" s="8"/>
       <c r="X14" s="2"/>
-      <c r="Y14" s="19"/>
-      <c r="Z14" s="19"/>
-      <c r="AA14" s="19"/>
-      <c r="AB14" s="19"/>
-      <c r="AC14" s="19"/>
-      <c r="AD14" s="19"/>
+      <c r="Y14" s="16"/>
+      <c r="Z14" s="16"/>
+      <c r="AA14" s="16"/>
+      <c r="AB14" s="16"/>
+      <c r="AC14" s="16"/>
+      <c r="AD14" s="16"/>
       <c r="AE14" s="2"/>
       <c r="AF14" s="8"/>
       <c r="AG14" s="8"/>
@@ -1628,38 +1628,38 @@
     <row r="15" spans="1:45" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
       <c r="B15" s="3"/>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
       <c r="K15" s="2"/>
       <c r="L15" s="8"/>
       <c r="M15" s="3"/>
-      <c r="N15" s="18" t="s">
+      <c r="N15" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="O15" s="18"/>
-      <c r="P15" s="18"/>
-      <c r="Q15" s="18"/>
-      <c r="R15" s="18"/>
-      <c r="S15" s="18"/>
-      <c r="T15" s="18"/>
-      <c r="U15" s="18"/>
+      <c r="O15" s="17"/>
+      <c r="P15" s="17"/>
+      <c r="Q15" s="17"/>
+      <c r="R15" s="17"/>
+      <c r="S15" s="17"/>
+      <c r="T15" s="17"/>
+      <c r="U15" s="17"/>
       <c r="V15" s="2"/>
       <c r="W15" s="8"/>
       <c r="X15" s="2"/>
-      <c r="Y15" s="19"/>
-      <c r="Z15" s="19"/>
-      <c r="AA15" s="19"/>
-      <c r="AB15" s="19"/>
-      <c r="AC15" s="19"/>
-      <c r="AD15" s="19"/>
+      <c r="Y15" s="16"/>
+      <c r="Z15" s="16"/>
+      <c r="AA15" s="16"/>
+      <c r="AB15" s="16"/>
+      <c r="AC15" s="16"/>
+      <c r="AD15" s="16"/>
       <c r="AE15" s="2"/>
       <c r="AF15" s="8"/>
       <c r="AG15" s="8"/>
@@ -1679,34 +1679,34 @@
     <row r="16" spans="1:45" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
       <c r="B16" s="3"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="18"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
       <c r="K16" s="2"/>
       <c r="L16" s="8"/>
       <c r="M16" s="3"/>
-      <c r="N16" s="18"/>
-      <c r="O16" s="18"/>
-      <c r="P16" s="18"/>
-      <c r="Q16" s="18"/>
-      <c r="R16" s="18"/>
-      <c r="S16" s="18"/>
-      <c r="T16" s="18"/>
-      <c r="U16" s="18"/>
+      <c r="N16" s="17"/>
+      <c r="O16" s="17"/>
+      <c r="P16" s="17"/>
+      <c r="Q16" s="17"/>
+      <c r="R16" s="17"/>
+      <c r="S16" s="17"/>
+      <c r="T16" s="17"/>
+      <c r="U16" s="17"/>
       <c r="V16" s="2"/>
       <c r="W16" s="8"/>
       <c r="X16" s="2"/>
-      <c r="Y16" s="19"/>
-      <c r="Z16" s="19"/>
-      <c r="AA16" s="19"/>
-      <c r="AB16" s="19"/>
-      <c r="AC16" s="19"/>
-      <c r="AD16" s="19"/>
+      <c r="Y16" s="16"/>
+      <c r="Z16" s="16"/>
+      <c r="AA16" s="16"/>
+      <c r="AB16" s="16"/>
+      <c r="AC16" s="16"/>
+      <c r="AD16" s="16"/>
       <c r="AE16" s="2"/>
       <c r="AF16" s="8"/>
       <c r="AG16" s="8"/>
@@ -1726,34 +1726,34 @@
     <row r="17" spans="1:45" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
       <c r="B17" s="3"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="18"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
       <c r="K17" s="2"/>
       <c r="L17" s="8"/>
       <c r="M17" s="3"/>
-      <c r="N17" s="18"/>
-      <c r="O17" s="18"/>
-      <c r="P17" s="18"/>
-      <c r="Q17" s="18"/>
-      <c r="R17" s="18"/>
-      <c r="S17" s="18"/>
-      <c r="T17" s="18"/>
-      <c r="U17" s="18"/>
+      <c r="N17" s="17"/>
+      <c r="O17" s="17"/>
+      <c r="P17" s="17"/>
+      <c r="Q17" s="17"/>
+      <c r="R17" s="17"/>
+      <c r="S17" s="17"/>
+      <c r="T17" s="17"/>
+      <c r="U17" s="17"/>
       <c r="V17" s="2"/>
       <c r="W17" s="8"/>
       <c r="X17" s="2"/>
-      <c r="Y17" s="19"/>
-      <c r="Z17" s="19"/>
-      <c r="AA17" s="19"/>
-      <c r="AB17" s="19"/>
-      <c r="AC17" s="19"/>
-      <c r="AD17" s="19"/>
+      <c r="Y17" s="16"/>
+      <c r="Z17" s="16"/>
+      <c r="AA17" s="16"/>
+      <c r="AB17" s="16"/>
+      <c r="AC17" s="16"/>
+      <c r="AD17" s="16"/>
       <c r="AE17" s="2"/>
       <c r="AF17" s="8"/>
       <c r="AG17" s="8"/>
@@ -1773,34 +1773,34 @@
     <row r="18" spans="1:45" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
       <c r="B18" s="3"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="18"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
       <c r="K18" s="2"/>
       <c r="L18" s="8"/>
       <c r="M18" s="3"/>
-      <c r="N18" s="18"/>
-      <c r="O18" s="18"/>
-      <c r="P18" s="18"/>
-      <c r="Q18" s="18"/>
-      <c r="R18" s="18"/>
-      <c r="S18" s="18"/>
-      <c r="T18" s="18"/>
-      <c r="U18" s="18"/>
+      <c r="N18" s="17"/>
+      <c r="O18" s="17"/>
+      <c r="P18" s="17"/>
+      <c r="Q18" s="17"/>
+      <c r="R18" s="17"/>
+      <c r="S18" s="17"/>
+      <c r="T18" s="17"/>
+      <c r="U18" s="17"/>
       <c r="V18" s="2"/>
       <c r="W18" s="8"/>
       <c r="X18" s="2"/>
-      <c r="Y18" s="19"/>
-      <c r="Z18" s="19"/>
-      <c r="AA18" s="19"/>
-      <c r="AB18" s="19"/>
-      <c r="AC18" s="19"/>
-      <c r="AD18" s="19"/>
+      <c r="Y18" s="16"/>
+      <c r="Z18" s="16"/>
+      <c r="AA18" s="16"/>
+      <c r="AB18" s="16"/>
+      <c r="AC18" s="16"/>
+      <c r="AD18" s="16"/>
       <c r="AE18" s="2"/>
       <c r="AF18" s="8"/>
       <c r="AG18" s="8"/>
@@ -1820,34 +1820,34 @@
     <row r="19" spans="1:45" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
       <c r="B19" s="3"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="18"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
       <c r="K19" s="2"/>
       <c r="L19" s="8"/>
       <c r="M19" s="3"/>
-      <c r="N19" s="18"/>
-      <c r="O19" s="18"/>
-      <c r="P19" s="18"/>
-      <c r="Q19" s="18"/>
-      <c r="R19" s="18"/>
-      <c r="S19" s="18"/>
-      <c r="T19" s="18"/>
-      <c r="U19" s="18"/>
+      <c r="N19" s="17"/>
+      <c r="O19" s="17"/>
+      <c r="P19" s="17"/>
+      <c r="Q19" s="17"/>
+      <c r="R19" s="17"/>
+      <c r="S19" s="17"/>
+      <c r="T19" s="17"/>
+      <c r="U19" s="17"/>
       <c r="V19" s="2"/>
       <c r="W19" s="8"/>
       <c r="X19" s="2"/>
-      <c r="Y19" s="19"/>
-      <c r="Z19" s="19"/>
-      <c r="AA19" s="19"/>
-      <c r="AB19" s="19"/>
-      <c r="AC19" s="19"/>
-      <c r="AD19" s="19"/>
+      <c r="Y19" s="16"/>
+      <c r="Z19" s="16"/>
+      <c r="AA19" s="16"/>
+      <c r="AB19" s="16"/>
+      <c r="AC19" s="16"/>
+      <c r="AD19" s="16"/>
       <c r="AE19" s="2"/>
       <c r="AF19" s="8"/>
       <c r="AG19" s="8"/>
@@ -1867,34 +1867,34 @@
     <row r="20" spans="1:45" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
       <c r="B20" s="3"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="18"/>
-      <c r="J20" s="18"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
       <c r="K20" s="3"/>
       <c r="L20" s="8"/>
       <c r="M20" s="3"/>
-      <c r="N20" s="18"/>
-      <c r="O20" s="18"/>
-      <c r="P20" s="18"/>
-      <c r="Q20" s="18"/>
-      <c r="R20" s="18"/>
-      <c r="S20" s="18"/>
-      <c r="T20" s="18"/>
-      <c r="U20" s="18"/>
+      <c r="N20" s="17"/>
+      <c r="O20" s="17"/>
+      <c r="P20" s="17"/>
+      <c r="Q20" s="17"/>
+      <c r="R20" s="17"/>
+      <c r="S20" s="17"/>
+      <c r="T20" s="17"/>
+      <c r="U20" s="17"/>
       <c r="V20" s="3"/>
       <c r="W20" s="8"/>
       <c r="X20" s="2"/>
-      <c r="Y20" s="19"/>
-      <c r="Z20" s="19"/>
-      <c r="AA20" s="19"/>
-      <c r="AB20" s="19"/>
-      <c r="AC20" s="19"/>
-      <c r="AD20" s="19"/>
+      <c r="Y20" s="16"/>
+      <c r="Z20" s="16"/>
+      <c r="AA20" s="16"/>
+      <c r="AB20" s="16"/>
+      <c r="AC20" s="16"/>
+      <c r="AD20" s="16"/>
       <c r="AE20" s="2"/>
       <c r="AF20" s="8"/>
       <c r="AG20" s="8"/>
@@ -1914,34 +1914,34 @@
     <row r="21" spans="1:45" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
       <c r="B21" s="3"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="18"/>
-      <c r="J21" s="18"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
       <c r="K21" s="3"/>
       <c r="L21" s="8"/>
       <c r="M21" s="3"/>
-      <c r="N21" s="18"/>
-      <c r="O21" s="18"/>
-      <c r="P21" s="18"/>
-      <c r="Q21" s="18"/>
-      <c r="R21" s="18"/>
-      <c r="S21" s="18"/>
-      <c r="T21" s="18"/>
-      <c r="U21" s="18"/>
+      <c r="N21" s="17"/>
+      <c r="O21" s="17"/>
+      <c r="P21" s="17"/>
+      <c r="Q21" s="17"/>
+      <c r="R21" s="17"/>
+      <c r="S21" s="17"/>
+      <c r="T21" s="17"/>
+      <c r="U21" s="17"/>
       <c r="V21" s="3"/>
       <c r="W21" s="8"/>
       <c r="X21" s="2"/>
-      <c r="Y21" s="19"/>
-      <c r="Z21" s="19"/>
-      <c r="AA21" s="19"/>
-      <c r="AB21" s="19"/>
-      <c r="AC21" s="19"/>
-      <c r="AD21" s="19"/>
+      <c r="Y21" s="16"/>
+      <c r="Z21" s="16"/>
+      <c r="AA21" s="16"/>
+      <c r="AB21" s="16"/>
+      <c r="AC21" s="16"/>
+      <c r="AD21" s="16"/>
       <c r="AE21" s="2"/>
       <c r="AF21" s="8"/>
       <c r="AG21" s="8"/>
@@ -1961,34 +1961,34 @@
     <row r="22" spans="1:45" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
       <c r="B22" s="3"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="18"/>
-      <c r="J22" s="18"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="17"/>
       <c r="K22" s="3"/>
       <c r="L22" s="8"/>
       <c r="M22" s="3"/>
-      <c r="N22" s="18"/>
-      <c r="O22" s="18"/>
-      <c r="P22" s="18"/>
-      <c r="Q22" s="18"/>
-      <c r="R22" s="18"/>
-      <c r="S22" s="18"/>
-      <c r="T22" s="18"/>
-      <c r="U22" s="18"/>
+      <c r="N22" s="17"/>
+      <c r="O22" s="17"/>
+      <c r="P22" s="17"/>
+      <c r="Q22" s="17"/>
+      <c r="R22" s="17"/>
+      <c r="S22" s="17"/>
+      <c r="T22" s="17"/>
+      <c r="U22" s="17"/>
       <c r="V22" s="3"/>
       <c r="W22" s="8"/>
       <c r="X22" s="2"/>
-      <c r="Y22" s="19"/>
-      <c r="Z22" s="19"/>
-      <c r="AA22" s="19"/>
-      <c r="AB22" s="19"/>
-      <c r="AC22" s="19"/>
-      <c r="AD22" s="19"/>
+      <c r="Y22" s="16"/>
+      <c r="Z22" s="16"/>
+      <c r="AA22" s="16"/>
+      <c r="AB22" s="16"/>
+      <c r="AC22" s="16"/>
+      <c r="AD22" s="16"/>
       <c r="AE22" s="2"/>
       <c r="AF22" s="8"/>
       <c r="AG22" s="8"/>
@@ -2008,34 +2008,34 @@
     <row r="23" spans="1:45" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
       <c r="B23" s="3"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="18"/>
-      <c r="J23" s="18"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
       <c r="K23" s="3"/>
       <c r="L23" s="8"/>
       <c r="M23" s="3"/>
-      <c r="N23" s="18"/>
-      <c r="O23" s="18"/>
-      <c r="P23" s="18"/>
-      <c r="Q23" s="18"/>
-      <c r="R23" s="18"/>
-      <c r="S23" s="18"/>
-      <c r="T23" s="18"/>
-      <c r="U23" s="18"/>
+      <c r="N23" s="17"/>
+      <c r="O23" s="17"/>
+      <c r="P23" s="17"/>
+      <c r="Q23" s="17"/>
+      <c r="R23" s="17"/>
+      <c r="S23" s="17"/>
+      <c r="T23" s="17"/>
+      <c r="U23" s="17"/>
       <c r="V23" s="3"/>
       <c r="W23" s="8"/>
       <c r="X23" s="2"/>
-      <c r="Y23" s="19"/>
-      <c r="Z23" s="19"/>
-      <c r="AA23" s="19"/>
-      <c r="AB23" s="19"/>
-      <c r="AC23" s="19"/>
-      <c r="AD23" s="19"/>
+      <c r="Y23" s="16"/>
+      <c r="Z23" s="16"/>
+      <c r="AA23" s="16"/>
+      <c r="AB23" s="16"/>
+      <c r="AC23" s="16"/>
+      <c r="AD23" s="16"/>
       <c r="AE23" s="2"/>
       <c r="AF23" s="8"/>
       <c r="AG23" s="8"/>
@@ -3236,11 +3236,12 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="Y2:AD2"/>
-    <mergeCell ref="Y3:AD23"/>
-    <mergeCell ref="N14:U14"/>
-    <mergeCell ref="N15:U23"/>
-    <mergeCell ref="N3:U11"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:H5"/>
     <mergeCell ref="C2:J2"/>
     <mergeCell ref="N2:U2"/>
     <mergeCell ref="C9:D9"/>
@@ -3257,12 +3258,11 @@
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:H3"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="Y2:AD2"/>
+    <mergeCell ref="Y3:AD23"/>
+    <mergeCell ref="N14:U14"/>
+    <mergeCell ref="N15:U23"/>
+    <mergeCell ref="N3:U11"/>
   </mergeCells>
   <dataValidations count="9">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:H4" xr:uid="{1E560510-9B62-40D0-8CA0-31E8B10CD6FF}">
@@ -3307,7 +3307,7 @@
   <dimension ref="A1:AS52"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3363,36 +3363,36 @@
     </row>
     <row r="2" spans="1:45" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="7"/>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="29"/>
-      <c r="R2" s="29"/>
-      <c r="S2" s="29"/>
-      <c r="T2" s="29"/>
-      <c r="U2" s="29"/>
-      <c r="V2" s="29"/>
-      <c r="W2" s="29"/>
-      <c r="X2" s="29"/>
-      <c r="Y2" s="29"/>
-      <c r="Z2" s="29"/>
-      <c r="AA2" s="29"/>
-      <c r="AB2" s="29"/>
-      <c r="AC2" s="29"/>
-      <c r="AD2" s="29"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
+      <c r="S2" s="22"/>
+      <c r="T2" s="22"/>
+      <c r="U2" s="22"/>
+      <c r="V2" s="22"/>
+      <c r="W2" s="22"/>
+      <c r="X2" s="22"/>
+      <c r="Y2" s="22"/>
+      <c r="Z2" s="22"/>
+      <c r="AA2" s="22"/>
+      <c r="AB2" s="22"/>
+      <c r="AC2" s="22"/>
+      <c r="AD2" s="22"/>
     </row>
     <row r="3" spans="1:45" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
@@ -3428,709 +3428,709 @@
     <row r="4" spans="1:45" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="7"/>
       <c r="C4" s="14"/>
-      <c r="D4" s="25" t="s">
+      <c r="D4" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
       <c r="L4" s="14"/>
-      <c r="M4" s="25" t="s">
+      <c r="M4" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="N4" s="25"/>
-      <c r="O4" s="25"/>
-      <c r="P4" s="25"/>
-      <c r="Q4" s="25"/>
-      <c r="R4" s="25"/>
-      <c r="S4" s="25"/>
-      <c r="T4" s="25"/>
+      <c r="N4" s="23"/>
+      <c r="O4" s="23"/>
+      <c r="P4" s="23"/>
+      <c r="Q4" s="23"/>
+      <c r="R4" s="23"/>
+      <c r="S4" s="23"/>
+      <c r="T4" s="23"/>
       <c r="U4" s="14"/>
-      <c r="V4" s="25" t="s">
+      <c r="V4" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="W4" s="25"/>
-      <c r="X4" s="25"/>
-      <c r="Y4" s="25"/>
-      <c r="Z4" s="25"/>
-      <c r="AA4" s="25"/>
-      <c r="AB4" s="25"/>
-      <c r="AC4" s="25"/>
+      <c r="W4" s="23"/>
+      <c r="X4" s="23"/>
+      <c r="Y4" s="23"/>
+      <c r="Z4" s="23"/>
+      <c r="AA4" s="23"/>
+      <c r="AB4" s="23"/>
+      <c r="AC4" s="23"/>
       <c r="AD4" s="14"/>
     </row>
     <row r="5" spans="1:45" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7"/>
       <c r="C5" s="14"/>
-      <c r="D5" s="21" t="s">
+      <c r="D5" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
       <c r="L5" s="14"/>
-      <c r="M5" s="21" t="s">
+      <c r="M5" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="N5" s="21"/>
-      <c r="O5" s="21"/>
-      <c r="P5" s="21"/>
-      <c r="Q5" s="21"/>
-      <c r="R5" s="21"/>
-      <c r="S5" s="21"/>
-      <c r="T5" s="21"/>
+      <c r="N5" s="26"/>
+      <c r="O5" s="26"/>
+      <c r="P5" s="26"/>
+      <c r="Q5" s="26"/>
+      <c r="R5" s="26"/>
+      <c r="S5" s="26"/>
+      <c r="T5" s="26"/>
       <c r="U5" s="14"/>
-      <c r="V5" s="20" t="s">
+      <c r="V5" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="W5" s="20"/>
-      <c r="X5" s="20"/>
-      <c r="Y5" s="20"/>
-      <c r="Z5" s="20" t="s">
+      <c r="W5" s="25"/>
+      <c r="X5" s="25"/>
+      <c r="Y5" s="25"/>
+      <c r="Z5" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="AA5" s="20"/>
-      <c r="AB5" s="20"/>
-      <c r="AC5" s="20"/>
+      <c r="AA5" s="25"/>
+      <c r="AB5" s="25"/>
+      <c r="AC5" s="25"/>
       <c r="AD5" s="14"/>
     </row>
     <row r="6" spans="1:45" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
       <c r="C6" s="14"/>
-      <c r="D6" s="20" t="s">
+      <c r="D6" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20" t="s">
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20" t="s">
+      <c r="I6" s="25"/>
+      <c r="J6" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="K6" s="20"/>
+      <c r="K6" s="25"/>
       <c r="L6" s="14"/>
-      <c r="M6" s="20" t="s">
+      <c r="M6" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="N6" s="20"/>
-      <c r="O6" s="20"/>
-      <c r="P6" s="20"/>
-      <c r="Q6" s="20" t="s">
+      <c r="N6" s="25"/>
+      <c r="O6" s="25"/>
+      <c r="P6" s="25"/>
+      <c r="Q6" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="R6" s="20"/>
-      <c r="S6" s="20" t="s">
+      <c r="R6" s="25"/>
+      <c r="S6" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="T6" s="20"/>
+      <c r="T6" s="25"/>
       <c r="U6" s="14"/>
-      <c r="V6" s="24"/>
-      <c r="W6" s="24"/>
-      <c r="X6" s="24"/>
-      <c r="Y6" s="24"/>
-      <c r="Z6" s="27">
+      <c r="V6" s="20"/>
+      <c r="W6" s="20"/>
+      <c r="X6" s="20"/>
+      <c r="Y6" s="20"/>
+      <c r="Z6" s="24">
         <v>0</v>
       </c>
-      <c r="AA6" s="27"/>
-      <c r="AB6" s="27"/>
-      <c r="AC6" s="27"/>
+      <c r="AA6" s="24"/>
+      <c r="AB6" s="24"/>
+      <c r="AC6" s="24"/>
       <c r="AD6" s="14"/>
     </row>
     <row r="7" spans="1:45" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7"/>
       <c r="C7" s="14"/>
-      <c r="D7" s="24" t="s">
+      <c r="D7" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="22">
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="27">
         <v>0</v>
       </c>
-      <c r="I7" s="22"/>
-      <c r="J7" s="23">
+      <c r="I7" s="27"/>
+      <c r="J7" s="28">
         <f>IF(ISNUMBER(SEARCH("Forjado por la Guerra",'Información Principal'!E7)), (((H7-1)/2)+1)*0.8, ((H7-1)/2)+1)</f>
         <v>0.5</v>
       </c>
-      <c r="K7" s="23"/>
+      <c r="K7" s="28"/>
       <c r="L7" s="14"/>
-      <c r="M7" s="24" t="s">
+      <c r="M7" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="N7" s="24"/>
-      <c r="O7" s="24"/>
-      <c r="P7" s="24"/>
-      <c r="Q7" s="22">
+      <c r="N7" s="20"/>
+      <c r="O7" s="20"/>
+      <c r="P7" s="20"/>
+      <c r="Q7" s="27">
         <v>0</v>
       </c>
-      <c r="R7" s="22"/>
-      <c r="S7" s="23">
+      <c r="R7" s="27"/>
+      <c r="S7" s="28">
         <f>((Q7-1)/2)+1</f>
         <v>0.5</v>
       </c>
-      <c r="T7" s="23"/>
+      <c r="T7" s="28"/>
       <c r="U7" s="14"/>
-      <c r="V7" s="24"/>
-      <c r="W7" s="24"/>
-      <c r="X7" s="24"/>
-      <c r="Y7" s="24"/>
-      <c r="Z7" s="27">
+      <c r="V7" s="20"/>
+      <c r="W7" s="20"/>
+      <c r="X7" s="20"/>
+      <c r="Y7" s="20"/>
+      <c r="Z7" s="24">
         <v>0</v>
       </c>
-      <c r="AA7" s="27"/>
-      <c r="AB7" s="27"/>
-      <c r="AC7" s="27"/>
+      <c r="AA7" s="24"/>
+      <c r="AB7" s="24"/>
+      <c r="AC7" s="24"/>
       <c r="AD7" s="14"/>
     </row>
     <row r="8" spans="1:45" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7"/>
       <c r="C8" s="14"/>
-      <c r="D8" s="24" t="s">
+      <c r="D8" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="22">
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="27">
         <v>0</v>
       </c>
-      <c r="I8" s="22"/>
-      <c r="J8" s="23">
+      <c r="I8" s="27"/>
+      <c r="J8" s="28">
         <f>((H12-1)/2)+1</f>
         <v>0.5</v>
       </c>
-      <c r="K8" s="23"/>
+      <c r="K8" s="28"/>
       <c r="L8" s="14"/>
-      <c r="M8" s="24" t="s">
+      <c r="M8" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="N8" s="24"/>
-      <c r="O8" s="24"/>
-      <c r="P8" s="24"/>
-      <c r="Q8" s="22">
+      <c r="N8" s="20"/>
+      <c r="O8" s="20"/>
+      <c r="P8" s="20"/>
+      <c r="Q8" s="27">
         <v>0</v>
       </c>
-      <c r="R8" s="22"/>
-      <c r="S8" s="23">
+      <c r="R8" s="27"/>
+      <c r="S8" s="28">
         <f>((Q8-1)/2)+1</f>
         <v>0.5</v>
       </c>
-      <c r="T8" s="23"/>
+      <c r="T8" s="28"/>
       <c r="U8" s="14"/>
-      <c r="V8" s="24"/>
-      <c r="W8" s="24"/>
-      <c r="X8" s="24"/>
-      <c r="Y8" s="24"/>
-      <c r="Z8" s="27">
+      <c r="V8" s="20"/>
+      <c r="W8" s="20"/>
+      <c r="X8" s="20"/>
+      <c r="Y8" s="20"/>
+      <c r="Z8" s="24">
         <v>0</v>
       </c>
-      <c r="AA8" s="27"/>
-      <c r="AB8" s="27"/>
-      <c r="AC8" s="27"/>
+      <c r="AA8" s="24"/>
+      <c r="AB8" s="24"/>
+      <c r="AC8" s="24"/>
       <c r="AD8" s="14"/>
     </row>
     <row r="9" spans="1:45" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7"/>
       <c r="C9" s="14"/>
-      <c r="D9" s="24" t="s">
+      <c r="D9" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="22">
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="27">
         <v>0</v>
       </c>
-      <c r="I9" s="22"/>
-      <c r="J9" s="23">
+      <c r="I9" s="27"/>
+      <c r="J9" s="28">
         <f>IF(ISNUMBER(SEARCH("Linaje Sangriento",'Información Principal'!E7)), (((H7-1)/2)+1)*0.8, ((H7-1)/2)+1)</f>
         <v>0.5</v>
       </c>
-      <c r="K9" s="23"/>
+      <c r="K9" s="28"/>
       <c r="L9" s="14"/>
-      <c r="M9" s="24" t="s">
+      <c r="M9" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="N9" s="24"/>
-      <c r="O9" s="24"/>
-      <c r="P9" s="24"/>
-      <c r="Q9" s="22">
+      <c r="N9" s="20"/>
+      <c r="O9" s="20"/>
+      <c r="P9" s="20"/>
+      <c r="Q9" s="27">
         <v>0</v>
       </c>
-      <c r="R9" s="22"/>
-      <c r="S9" s="23">
+      <c r="R9" s="27"/>
+      <c r="S9" s="28">
         <f>((Q9-1)/2)+1</f>
         <v>0.5</v>
       </c>
-      <c r="T9" s="23"/>
+      <c r="T9" s="28"/>
       <c r="U9" s="14"/>
-      <c r="V9" s="24"/>
-      <c r="W9" s="24"/>
-      <c r="X9" s="24"/>
-      <c r="Y9" s="24"/>
-      <c r="Z9" s="27">
+      <c r="V9" s="20"/>
+      <c r="W9" s="20"/>
+      <c r="X9" s="20"/>
+      <c r="Y9" s="20"/>
+      <c r="Z9" s="24">
         <v>0</v>
       </c>
-      <c r="AA9" s="27"/>
-      <c r="AB9" s="27"/>
-      <c r="AC9" s="27"/>
+      <c r="AA9" s="24"/>
+      <c r="AB9" s="24"/>
+      <c r="AC9" s="24"/>
       <c r="AD9" s="14"/>
     </row>
     <row r="10" spans="1:45" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7"/>
       <c r="C10" s="14"/>
-      <c r="D10" s="21" t="s">
+      <c r="D10" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="26"/>
       <c r="L10" s="14"/>
-      <c r="M10" s="21" t="s">
+      <c r="M10" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="N10" s="21"/>
-      <c r="O10" s="21"/>
-      <c r="P10" s="21"/>
-      <c r="Q10" s="21"/>
-      <c r="R10" s="21"/>
-      <c r="S10" s="21"/>
-      <c r="T10" s="21"/>
+      <c r="N10" s="26"/>
+      <c r="O10" s="26"/>
+      <c r="P10" s="26"/>
+      <c r="Q10" s="26"/>
+      <c r="R10" s="26"/>
+      <c r="S10" s="26"/>
+      <c r="T10" s="26"/>
       <c r="U10" s="14"/>
-      <c r="V10" s="24"/>
-      <c r="W10" s="24"/>
-      <c r="X10" s="24"/>
-      <c r="Y10" s="24"/>
-      <c r="Z10" s="27">
+      <c r="V10" s="20"/>
+      <c r="W10" s="20"/>
+      <c r="X10" s="20"/>
+      <c r="Y10" s="20"/>
+      <c r="Z10" s="24">
         <v>0</v>
       </c>
-      <c r="AA10" s="27"/>
-      <c r="AB10" s="27"/>
-      <c r="AC10" s="27"/>
+      <c r="AA10" s="24"/>
+      <c r="AB10" s="24"/>
+      <c r="AC10" s="24"/>
       <c r="AD10" s="14"/>
     </row>
     <row r="11" spans="1:45" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7"/>
       <c r="C11" s="14"/>
-      <c r="D11" s="20" t="s">
+      <c r="D11" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20" t="s">
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20" t="s">
+      <c r="I11" s="25"/>
+      <c r="J11" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="K11" s="20"/>
+      <c r="K11" s="25"/>
       <c r="L11" s="14"/>
-      <c r="M11" s="20" t="s">
+      <c r="M11" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="N11" s="20"/>
-      <c r="O11" s="20"/>
-      <c r="P11" s="20"/>
-      <c r="Q11" s="20" t="s">
+      <c r="N11" s="25"/>
+      <c r="O11" s="25"/>
+      <c r="P11" s="25"/>
+      <c r="Q11" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="R11" s="20"/>
-      <c r="S11" s="20" t="s">
+      <c r="R11" s="25"/>
+      <c r="S11" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="T11" s="20"/>
+      <c r="T11" s="25"/>
       <c r="U11" s="14"/>
-      <c r="V11" s="24"/>
-      <c r="W11" s="24"/>
-      <c r="X11" s="24"/>
-      <c r="Y11" s="24"/>
-      <c r="Z11" s="27">
+      <c r="V11" s="20"/>
+      <c r="W11" s="20"/>
+      <c r="X11" s="20"/>
+      <c r="Y11" s="20"/>
+      <c r="Z11" s="24">
         <v>0</v>
       </c>
-      <c r="AA11" s="27"/>
-      <c r="AB11" s="27"/>
-      <c r="AC11" s="27"/>
+      <c r="AA11" s="24"/>
+      <c r="AB11" s="24"/>
+      <c r="AC11" s="24"/>
       <c r="AD11" s="14"/>
     </row>
     <row r="12" spans="1:45" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7"/>
       <c r="C12" s="14"/>
-      <c r="D12" s="24" t="s">
+      <c r="D12" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="22">
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="27">
         <v>0</v>
       </c>
-      <c r="I12" s="22"/>
-      <c r="J12" s="23">
+      <c r="I12" s="27"/>
+      <c r="J12" s="28">
         <f>((H12-1)/2)+1</f>
         <v>0.5</v>
       </c>
-      <c r="K12" s="23"/>
+      <c r="K12" s="28"/>
       <c r="L12" s="14"/>
-      <c r="M12" s="24" t="s">
+      <c r="M12" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="N12" s="24"/>
-      <c r="O12" s="24"/>
-      <c r="P12" s="24"/>
-      <c r="Q12" s="22">
+      <c r="N12" s="20"/>
+      <c r="O12" s="20"/>
+      <c r="P12" s="20"/>
+      <c r="Q12" s="27">
         <v>0</v>
       </c>
-      <c r="R12" s="22"/>
-      <c r="S12" s="23">
+      <c r="R12" s="27"/>
+      <c r="S12" s="28">
         <f>((Q12-1)/2)+1</f>
         <v>0.5</v>
       </c>
-      <c r="T12" s="23"/>
+      <c r="T12" s="28"/>
       <c r="U12" s="14"/>
-      <c r="V12" s="24"/>
-      <c r="W12" s="24"/>
-      <c r="X12" s="24"/>
-      <c r="Y12" s="24"/>
-      <c r="Z12" s="27">
+      <c r="V12" s="20"/>
+      <c r="W12" s="20"/>
+      <c r="X12" s="20"/>
+      <c r="Y12" s="20"/>
+      <c r="Z12" s="24">
         <v>0</v>
       </c>
-      <c r="AA12" s="27"/>
-      <c r="AB12" s="27"/>
-      <c r="AC12" s="27"/>
+      <c r="AA12" s="24"/>
+      <c r="AB12" s="24"/>
+      <c r="AC12" s="24"/>
       <c r="AD12" s="14"/>
     </row>
     <row r="13" spans="1:45" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7"/>
       <c r="C13" s="14"/>
-      <c r="D13" s="24" t="s">
+      <c r="D13" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="22">
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="27">
         <v>0</v>
       </c>
-      <c r="I13" s="22"/>
-      <c r="J13" s="23">
+      <c r="I13" s="27"/>
+      <c r="J13" s="28">
         <f>((H13-1)/2)+1</f>
         <v>0.5</v>
       </c>
-      <c r="K13" s="23"/>
+      <c r="K13" s="28"/>
       <c r="L13" s="14"/>
-      <c r="M13" s="24" t="s">
+      <c r="M13" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="N13" s="24"/>
-      <c r="O13" s="24"/>
-      <c r="P13" s="24"/>
-      <c r="Q13" s="22">
+      <c r="N13" s="20"/>
+      <c r="O13" s="20"/>
+      <c r="P13" s="20"/>
+      <c r="Q13" s="27">
         <v>0</v>
       </c>
-      <c r="R13" s="22"/>
-      <c r="S13" s="23">
+      <c r="R13" s="27"/>
+      <c r="S13" s="28">
         <f>((Q13-1)/2)+1</f>
         <v>0.5</v>
       </c>
-      <c r="T13" s="23"/>
+      <c r="T13" s="28"/>
       <c r="U13" s="14"/>
-      <c r="V13" s="24"/>
-      <c r="W13" s="24"/>
-      <c r="X13" s="24"/>
-      <c r="Y13" s="24"/>
-      <c r="Z13" s="27">
+      <c r="V13" s="20"/>
+      <c r="W13" s="20"/>
+      <c r="X13" s="20"/>
+      <c r="Y13" s="20"/>
+      <c r="Z13" s="24">
         <v>0</v>
       </c>
-      <c r="AA13" s="27"/>
-      <c r="AB13" s="27"/>
-      <c r="AC13" s="27"/>
+      <c r="AA13" s="24"/>
+      <c r="AB13" s="24"/>
+      <c r="AC13" s="24"/>
       <c r="AD13" s="14"/>
     </row>
     <row r="14" spans="1:45" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7"/>
       <c r="C14" s="14"/>
-      <c r="D14" s="24" t="s">
+      <c r="D14" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="22">
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="27">
         <v>0</v>
       </c>
-      <c r="I14" s="22"/>
-      <c r="J14" s="23">
+      <c r="I14" s="27"/>
+      <c r="J14" s="28">
         <f>((H14-1)/2)+1</f>
         <v>0.5</v>
       </c>
-      <c r="K14" s="23"/>
+      <c r="K14" s="28"/>
       <c r="L14" s="14"/>
-      <c r="M14" s="24" t="s">
+      <c r="M14" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="N14" s="24"/>
-      <c r="O14" s="24"/>
-      <c r="P14" s="24"/>
-      <c r="Q14" s="22">
+      <c r="N14" s="20"/>
+      <c r="O14" s="20"/>
+      <c r="P14" s="20"/>
+      <c r="Q14" s="27">
         <v>0</v>
       </c>
-      <c r="R14" s="22"/>
-      <c r="S14" s="23">
+      <c r="R14" s="27"/>
+      <c r="S14" s="28">
         <f>((Q14-1)/2)+1</f>
         <v>0.5</v>
       </c>
-      <c r="T14" s="23"/>
+      <c r="T14" s="28"/>
       <c r="U14" s="14"/>
-      <c r="V14" s="24"/>
-      <c r="W14" s="24"/>
-      <c r="X14" s="24"/>
-      <c r="Y14" s="24"/>
-      <c r="Z14" s="27">
+      <c r="V14" s="20"/>
+      <c r="W14" s="20"/>
+      <c r="X14" s="20"/>
+      <c r="Y14" s="20"/>
+      <c r="Z14" s="24">
         <v>0</v>
       </c>
-      <c r="AA14" s="27"/>
-      <c r="AB14" s="27"/>
-      <c r="AC14" s="27"/>
+      <c r="AA14" s="24"/>
+      <c r="AB14" s="24"/>
+      <c r="AC14" s="24"/>
       <c r="AD14" s="14"/>
     </row>
     <row r="15" spans="1:45" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7"/>
       <c r="C15" s="14"/>
-      <c r="D15" s="21" t="s">
+      <c r="D15" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="21"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="26"/>
       <c r="L15" s="14"/>
-      <c r="M15" s="21" t="s">
+      <c r="M15" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="N15" s="21"/>
-      <c r="O15" s="21"/>
-      <c r="P15" s="21"/>
-      <c r="Q15" s="21"/>
-      <c r="R15" s="21"/>
-      <c r="S15" s="21"/>
-      <c r="T15" s="21"/>
+      <c r="N15" s="26"/>
+      <c r="O15" s="26"/>
+      <c r="P15" s="26"/>
+      <c r="Q15" s="26"/>
+      <c r="R15" s="26"/>
+      <c r="S15" s="26"/>
+      <c r="T15" s="26"/>
       <c r="U15" s="14"/>
-      <c r="V15" s="24"/>
-      <c r="W15" s="24"/>
-      <c r="X15" s="24"/>
-      <c r="Y15" s="24"/>
-      <c r="Z15" s="27">
+      <c r="V15" s="20"/>
+      <c r="W15" s="20"/>
+      <c r="X15" s="20"/>
+      <c r="Y15" s="20"/>
+      <c r="Z15" s="24">
         <v>0</v>
       </c>
-      <c r="AA15" s="27"/>
-      <c r="AB15" s="27"/>
-      <c r="AC15" s="27"/>
+      <c r="AA15" s="24"/>
+      <c r="AB15" s="24"/>
+      <c r="AC15" s="24"/>
       <c r="AD15" s="14"/>
     </row>
     <row r="16" spans="1:45" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7"/>
       <c r="C16" s="14"/>
-      <c r="D16" s="20" t="s">
+      <c r="D16" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20" t="s">
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20" t="s">
+      <c r="I16" s="25"/>
+      <c r="J16" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="K16" s="20"/>
+      <c r="K16" s="25"/>
       <c r="L16" s="14"/>
-      <c r="M16" s="20" t="s">
+      <c r="M16" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="N16" s="20"/>
-      <c r="O16" s="20"/>
-      <c r="P16" s="20"/>
-      <c r="Q16" s="20" t="s">
+      <c r="N16" s="25"/>
+      <c r="O16" s="25"/>
+      <c r="P16" s="25"/>
+      <c r="Q16" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="R16" s="20"/>
-      <c r="S16" s="20" t="s">
+      <c r="R16" s="25"/>
+      <c r="S16" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="T16" s="20"/>
+      <c r="T16" s="25"/>
       <c r="U16" s="14"/>
-      <c r="V16" s="24"/>
-      <c r="W16" s="24"/>
-      <c r="X16" s="24"/>
-      <c r="Y16" s="24"/>
-      <c r="Z16" s="27">
+      <c r="V16" s="20"/>
+      <c r="W16" s="20"/>
+      <c r="X16" s="20"/>
+      <c r="Y16" s="20"/>
+      <c r="Z16" s="24">
         <v>0</v>
       </c>
-      <c r="AA16" s="27"/>
-      <c r="AB16" s="27"/>
-      <c r="AC16" s="27"/>
+      <c r="AA16" s="24"/>
+      <c r="AB16" s="24"/>
+      <c r="AC16" s="24"/>
       <c r="AD16" s="14"/>
     </row>
     <row r="17" spans="1:45" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="7"/>
       <c r="C17" s="14"/>
-      <c r="D17" s="24" t="s">
+      <c r="D17" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="22">
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="27">
         <v>0</v>
       </c>
-      <c r="I17" s="22"/>
-      <c r="J17" s="23">
+      <c r="I17" s="27"/>
+      <c r="J17" s="28">
         <f>((H17-1)/2)+1</f>
         <v>0.5</v>
       </c>
-      <c r="K17" s="23"/>
+      <c r="K17" s="28"/>
       <c r="L17" s="14"/>
-      <c r="M17" s="24" t="s">
+      <c r="M17" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="N17" s="24"/>
-      <c r="O17" s="24"/>
-      <c r="P17" s="24"/>
-      <c r="Q17" s="22">
+      <c r="N17" s="20"/>
+      <c r="O17" s="20"/>
+      <c r="P17" s="20"/>
+      <c r="Q17" s="27">
         <v>0</v>
       </c>
-      <c r="R17" s="22"/>
-      <c r="S17" s="23">
+      <c r="R17" s="27"/>
+      <c r="S17" s="28">
         <f>((Q17-1)/2)+1</f>
         <v>0.5</v>
       </c>
-      <c r="T17" s="23"/>
+      <c r="T17" s="28"/>
       <c r="U17" s="14"/>
-      <c r="V17" s="24"/>
-      <c r="W17" s="24"/>
-      <c r="X17" s="24"/>
-      <c r="Y17" s="24"/>
-      <c r="Z17" s="27">
+      <c r="V17" s="20"/>
+      <c r="W17" s="20"/>
+      <c r="X17" s="20"/>
+      <c r="Y17" s="20"/>
+      <c r="Z17" s="24">
         <v>0</v>
       </c>
-      <c r="AA17" s="27"/>
-      <c r="AB17" s="27"/>
-      <c r="AC17" s="27"/>
+      <c r="AA17" s="24"/>
+      <c r="AB17" s="24"/>
+      <c r="AC17" s="24"/>
       <c r="AD17" s="14"/>
     </row>
     <row r="18" spans="1:45" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="7"/>
       <c r="C18" s="14"/>
-      <c r="D18" s="24" t="s">
+      <c r="D18" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="22">
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="27">
         <v>0</v>
       </c>
-      <c r="I18" s="22"/>
-      <c r="J18" s="23">
+      <c r="I18" s="27"/>
+      <c r="J18" s="28">
         <f>((H18-1)/2)+1</f>
         <v>0.5</v>
       </c>
-      <c r="K18" s="23"/>
+      <c r="K18" s="28"/>
       <c r="L18" s="14"/>
-      <c r="M18" s="24" t="s">
+      <c r="M18" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="N18" s="24"/>
-      <c r="O18" s="24"/>
-      <c r="P18" s="24"/>
-      <c r="Q18" s="22">
+      <c r="N18" s="20"/>
+      <c r="O18" s="20"/>
+      <c r="P18" s="20"/>
+      <c r="Q18" s="27">
         <v>0</v>
       </c>
-      <c r="R18" s="22"/>
-      <c r="S18" s="23">
+      <c r="R18" s="27"/>
+      <c r="S18" s="28">
         <f>((Q18-1)/2)+1</f>
         <v>0.5</v>
       </c>
-      <c r="T18" s="23"/>
+      <c r="T18" s="28"/>
       <c r="U18" s="14"/>
-      <c r="V18" s="24"/>
-      <c r="W18" s="24"/>
-      <c r="X18" s="24"/>
-      <c r="Y18" s="24"/>
-      <c r="Z18" s="27">
+      <c r="V18" s="20"/>
+      <c r="W18" s="20"/>
+      <c r="X18" s="20"/>
+      <c r="Y18" s="20"/>
+      <c r="Z18" s="24">
         <v>0</v>
       </c>
-      <c r="AA18" s="27"/>
-      <c r="AB18" s="27"/>
-      <c r="AC18" s="27"/>
+      <c r="AA18" s="24"/>
+      <c r="AB18" s="24"/>
+      <c r="AC18" s="24"/>
       <c r="AD18" s="14"/>
     </row>
     <row r="19" spans="1:45" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7"/>
       <c r="C19" s="14"/>
-      <c r="D19" s="24" t="s">
+      <c r="D19" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="22">
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="27">
         <v>0</v>
       </c>
-      <c r="I19" s="22"/>
-      <c r="J19" s="23">
+      <c r="I19" s="27"/>
+      <c r="J19" s="28">
         <f>((H19-1)/2)+1</f>
         <v>0.5</v>
       </c>
-      <c r="K19" s="23"/>
+      <c r="K19" s="28"/>
       <c r="L19" s="14"/>
-      <c r="M19" s="24" t="s">
+      <c r="M19" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="N19" s="24"/>
-      <c r="O19" s="24"/>
-      <c r="P19" s="24"/>
-      <c r="Q19" s="22">
+      <c r="N19" s="20"/>
+      <c r="O19" s="20"/>
+      <c r="P19" s="20"/>
+      <c r="Q19" s="27">
         <v>0</v>
       </c>
-      <c r="R19" s="22"/>
-      <c r="S19" s="23">
+      <c r="R19" s="27"/>
+      <c r="S19" s="28">
         <f>((Q19-1)/2)+1</f>
         <v>0.5</v>
       </c>
-      <c r="T19" s="23"/>
+      <c r="T19" s="28"/>
       <c r="U19" s="14"/>
-      <c r="V19" s="24"/>
-      <c r="W19" s="24"/>
-      <c r="X19" s="24"/>
-      <c r="Y19" s="24"/>
-      <c r="Z19" s="27">
+      <c r="V19" s="20"/>
+      <c r="W19" s="20"/>
+      <c r="X19" s="20"/>
+      <c r="Y19" s="20"/>
+      <c r="Z19" s="24">
         <v>0</v>
       </c>
-      <c r="AA19" s="27"/>
-      <c r="AB19" s="27"/>
-      <c r="AC19" s="27"/>
+      <c r="AA19" s="24"/>
+      <c r="AB19" s="24"/>
+      <c r="AC19" s="24"/>
       <c r="AD19" s="14"/>
     </row>
     <row r="20" spans="1:45" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -4167,200 +4167,200 @@
     <row r="21" spans="1:45" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="7"/>
       <c r="C21" s="14"/>
-      <c r="D21" s="25" t="s">
+      <c r="D21" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="25"/>
-      <c r="I21" s="25"/>
-      <c r="J21" s="25"/>
-      <c r="K21" s="25"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="23"/>
+      <c r="K21" s="23"/>
       <c r="L21" s="14"/>
-      <c r="M21" s="25" t="s">
+      <c r="M21" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="N21" s="25"/>
-      <c r="O21" s="25"/>
-      <c r="P21" s="25"/>
-      <c r="Q21" s="25"/>
-      <c r="R21" s="25"/>
-      <c r="S21" s="25"/>
-      <c r="T21" s="25"/>
+      <c r="N21" s="23"/>
+      <c r="O21" s="23"/>
+      <c r="P21" s="23"/>
+      <c r="Q21" s="23"/>
+      <c r="R21" s="23"/>
+      <c r="S21" s="23"/>
+      <c r="T21" s="23"/>
       <c r="U21" s="14"/>
-      <c r="V21" s="25" t="s">
+      <c r="V21" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="W21" s="25"/>
-      <c r="X21" s="25"/>
-      <c r="Y21" s="25"/>
-      <c r="Z21" s="25"/>
-      <c r="AA21" s="25"/>
-      <c r="AB21" s="25"/>
-      <c r="AC21" s="25"/>
+      <c r="W21" s="23"/>
+      <c r="X21" s="23"/>
+      <c r="Y21" s="23"/>
+      <c r="Z21" s="23"/>
+      <c r="AA21" s="23"/>
+      <c r="AB21" s="23"/>
+      <c r="AC21" s="23"/>
       <c r="AD21" s="14"/>
     </row>
     <row r="22" spans="1:45" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="7"/>
       <c r="C22" s="14"/>
-      <c r="D22" s="20" t="s">
+      <c r="D22" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="20" t="s">
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="I22" s="20"/>
-      <c r="J22" s="20"/>
-      <c r="K22" s="20"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="25"/>
+      <c r="K22" s="25"/>
       <c r="L22" s="14"/>
-      <c r="M22" s="20" t="s">
+      <c r="M22" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="N22" s="20"/>
-      <c r="O22" s="20"/>
-      <c r="P22" s="20"/>
-      <c r="Q22" s="20"/>
-      <c r="R22" s="20"/>
-      <c r="S22" s="20"/>
-      <c r="T22" s="20"/>
+      <c r="N22" s="25"/>
+      <c r="O22" s="25"/>
+      <c r="P22" s="25"/>
+      <c r="Q22" s="25"/>
+      <c r="R22" s="25"/>
+      <c r="S22" s="25"/>
+      <c r="T22" s="25"/>
       <c r="U22" s="14"/>
-      <c r="V22" s="20" t="s">
+      <c r="V22" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="W22" s="20"/>
-      <c r="X22" s="20"/>
-      <c r="Y22" s="20"/>
-      <c r="Z22" s="20"/>
-      <c r="AA22" s="20"/>
-      <c r="AB22" s="20"/>
-      <c r="AC22" s="20"/>
+      <c r="W22" s="25"/>
+      <c r="X22" s="25"/>
+      <c r="Y22" s="25"/>
+      <c r="Z22" s="25"/>
+      <c r="AA22" s="25"/>
+      <c r="AB22" s="25"/>
+      <c r="AC22" s="25"/>
       <c r="AD22" s="14"/>
     </row>
     <row r="23" spans="1:45" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="7"/>
       <c r="C23" s="14"/>
-      <c r="D23" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="E23" s="24"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="24"/>
-      <c r="H23" s="27">
+      <c r="D23" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="24">
         <v>0</v>
       </c>
-      <c r="I23" s="27"/>
-      <c r="J23" s="27"/>
-      <c r="K23" s="27"/>
+      <c r="I23" s="24"/>
+      <c r="J23" s="24"/>
+      <c r="K23" s="24"/>
       <c r="L23" s="14"/>
-      <c r="M23" s="28" t="s">
+      <c r="M23" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="N23" s="28"/>
-      <c r="O23" s="28"/>
-      <c r="P23" s="28"/>
-      <c r="Q23" s="28"/>
-      <c r="R23" s="28"/>
-      <c r="S23" s="28"/>
-      <c r="T23" s="28"/>
+      <c r="N23" s="21"/>
+      <c r="O23" s="21"/>
+      <c r="P23" s="21"/>
+      <c r="Q23" s="21"/>
+      <c r="R23" s="21"/>
+      <c r="S23" s="21"/>
+      <c r="T23" s="21"/>
       <c r="U23" s="14"/>
-      <c r="V23" s="22">
+      <c r="V23" s="27">
         <f>SUM(V25:AC25)</f>
         <v>0</v>
       </c>
-      <c r="W23" s="22"/>
-      <c r="X23" s="22"/>
-      <c r="Y23" s="22"/>
-      <c r="Z23" s="22"/>
-      <c r="AA23" s="22"/>
-      <c r="AB23" s="22"/>
-      <c r="AC23" s="22"/>
+      <c r="W23" s="27"/>
+      <c r="X23" s="27"/>
+      <c r="Y23" s="27"/>
+      <c r="Z23" s="27"/>
+      <c r="AA23" s="27"/>
+      <c r="AB23" s="27"/>
+      <c r="AC23" s="27"/>
       <c r="AD23" s="14"/>
     </row>
     <row r="24" spans="1:45" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="7"/>
       <c r="C24" s="14"/>
-      <c r="D24" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="24"/>
-      <c r="H24" s="27">
+      <c r="D24" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="24">
         <v>0</v>
       </c>
-      <c r="I24" s="27"/>
-      <c r="J24" s="27"/>
-      <c r="K24" s="27"/>
+      <c r="I24" s="24"/>
+      <c r="J24" s="24"/>
+      <c r="K24" s="24"/>
       <c r="L24" s="14"/>
-      <c r="M24" s="20" t="s">
+      <c r="M24" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="N24" s="20"/>
-      <c r="O24" s="20"/>
-      <c r="P24" s="20"/>
-      <c r="Q24" s="20" t="s">
+      <c r="N24" s="25"/>
+      <c r="O24" s="25"/>
+      <c r="P24" s="25"/>
+      <c r="Q24" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="R24" s="20"/>
-      <c r="S24" s="20"/>
-      <c r="T24" s="20"/>
+      <c r="R24" s="25"/>
+      <c r="S24" s="25"/>
+      <c r="T24" s="25"/>
       <c r="U24" s="14"/>
-      <c r="V24" s="20" t="s">
+      <c r="V24" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="W24" s="20"/>
-      <c r="X24" s="20"/>
-      <c r="Y24" s="20"/>
-      <c r="Z24" s="20" t="s">
+      <c r="W24" s="25"/>
+      <c r="X24" s="25"/>
+      <c r="Y24" s="25"/>
+      <c r="Z24" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="AA24" s="20"/>
-      <c r="AB24" s="20"/>
-      <c r="AC24" s="20"/>
+      <c r="AA24" s="25"/>
+      <c r="AB24" s="25"/>
+      <c r="AC24" s="25"/>
       <c r="AD24" s="14"/>
     </row>
     <row r="25" spans="1:45" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="8"/>
       <c r="C25" s="14"/>
-      <c r="D25" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="E25" s="24"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="24"/>
-      <c r="H25" s="27">
+      <c r="D25" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="24">
         <v>0</v>
       </c>
-      <c r="I25" s="27"/>
-      <c r="J25" s="27"/>
-      <c r="K25" s="27"/>
+      <c r="I25" s="24"/>
+      <c r="J25" s="24"/>
+      <c r="K25" s="24"/>
       <c r="L25" s="14"/>
-      <c r="M25" s="24"/>
-      <c r="N25" s="24"/>
-      <c r="O25" s="24"/>
-      <c r="P25" s="24"/>
-      <c r="Q25" s="28"/>
-      <c r="R25" s="28"/>
-      <c r="S25" s="28"/>
-      <c r="T25" s="28"/>
+      <c r="M25" s="20"/>
+      <c r="N25" s="20"/>
+      <c r="O25" s="20"/>
+      <c r="P25" s="20"/>
+      <c r="Q25" s="21"/>
+      <c r="R25" s="21"/>
+      <c r="S25" s="21"/>
+      <c r="T25" s="21"/>
       <c r="U25" s="14"/>
-      <c r="V25" s="23">
+      <c r="V25" s="28">
         <f>SUM(H7:I9,H12:I14,H17:I19,Q7:R9,Q12:R14,Q17:R19)</f>
         <v>0</v>
       </c>
-      <c r="W25" s="23"/>
-      <c r="X25" s="23"/>
-      <c r="Y25" s="23"/>
-      <c r="Z25" s="26">
+      <c r="W25" s="28"/>
+      <c r="X25" s="28"/>
+      <c r="Y25" s="28"/>
+      <c r="Z25" s="29">
         <v>0</v>
       </c>
-      <c r="AA25" s="26"/>
-      <c r="AB25" s="26"/>
-      <c r="AC25" s="26"/>
+      <c r="AA25" s="29"/>
+      <c r="AB25" s="29"/>
+      <c r="AC25" s="29"/>
       <c r="AD25" s="14"/>
       <c r="AE25" s="8"/>
       <c r="AF25" s="8"/>
@@ -4380,40 +4380,40 @@
     <row r="26" spans="1:45" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="8"/>
       <c r="C26" s="14"/>
-      <c r="D26" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="24"/>
-      <c r="H26" s="27">
+      <c r="D26" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="24">
         <v>0</v>
       </c>
-      <c r="I26" s="27"/>
-      <c r="J26" s="27"/>
-      <c r="K26" s="27"/>
+      <c r="I26" s="24"/>
+      <c r="J26" s="24"/>
+      <c r="K26" s="24"/>
       <c r="L26" s="14"/>
-      <c r="M26" s="24"/>
-      <c r="N26" s="24"/>
-      <c r="O26" s="24"/>
-      <c r="P26" s="24"/>
-      <c r="Q26" s="28"/>
-      <c r="R26" s="28"/>
-      <c r="S26" s="28"/>
-      <c r="T26" s="28"/>
+      <c r="M26" s="20"/>
+      <c r="N26" s="20"/>
+      <c r="O26" s="20"/>
+      <c r="P26" s="20"/>
+      <c r="Q26" s="21"/>
+      <c r="R26" s="21"/>
+      <c r="S26" s="21"/>
+      <c r="T26" s="21"/>
       <c r="U26" s="14"/>
-      <c r="V26" s="20" t="s">
+      <c r="V26" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="W26" s="20"/>
-      <c r="X26" s="20"/>
-      <c r="Y26" s="20"/>
-      <c r="Z26" s="20" t="s">
+      <c r="W26" s="25"/>
+      <c r="X26" s="25"/>
+      <c r="Y26" s="25"/>
+      <c r="Z26" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="AA26" s="20"/>
-      <c r="AB26" s="20"/>
-      <c r="AC26" s="20"/>
+      <c r="AA26" s="25"/>
+      <c r="AB26" s="25"/>
+      <c r="AC26" s="25"/>
       <c r="AD26" s="14"/>
       <c r="AE26" s="8"/>
       <c r="AF26" s="8"/>
@@ -4433,40 +4433,40 @@
     <row r="27" spans="1:45" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="8"/>
       <c r="C27" s="14"/>
-      <c r="D27" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="24"/>
-      <c r="H27" s="27">
+      <c r="D27" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="E27" s="20"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="24">
         <v>0</v>
       </c>
-      <c r="I27" s="27"/>
-      <c r="J27" s="27"/>
-      <c r="K27" s="27"/>
+      <c r="I27" s="24"/>
+      <c r="J27" s="24"/>
+      <c r="K27" s="24"/>
       <c r="L27" s="14"/>
-      <c r="M27" s="24"/>
-      <c r="N27" s="24"/>
-      <c r="O27" s="24"/>
-      <c r="P27" s="24"/>
-      <c r="Q27" s="28"/>
-      <c r="R27" s="28"/>
-      <c r="S27" s="28"/>
-      <c r="T27" s="28"/>
+      <c r="M27" s="20"/>
+      <c r="N27" s="20"/>
+      <c r="O27" s="20"/>
+      <c r="P27" s="20"/>
+      <c r="Q27" s="21"/>
+      <c r="R27" s="21"/>
+      <c r="S27" s="21"/>
+      <c r="T27" s="21"/>
       <c r="U27" s="14"/>
-      <c r="V27" s="23">
+      <c r="V27" s="28">
         <v>0</v>
       </c>
-      <c r="W27" s="23"/>
-      <c r="X27" s="23"/>
-      <c r="Y27" s="23"/>
-      <c r="Z27" s="26">
+      <c r="W27" s="28"/>
+      <c r="X27" s="28"/>
+      <c r="Y27" s="28"/>
+      <c r="Z27" s="29">
         <v>0</v>
       </c>
-      <c r="AA27" s="26"/>
-      <c r="AB27" s="26"/>
-      <c r="AC27" s="26"/>
+      <c r="AA27" s="29"/>
+      <c r="AB27" s="29"/>
+      <c r="AC27" s="29"/>
       <c r="AD27" s="14"/>
       <c r="AE27" s="8"/>
       <c r="AG27" s="8"/>
@@ -4485,40 +4485,41 @@
     <row r="28" spans="1:45" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="8"/>
       <c r="C28" s="14"/>
-      <c r="D28" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="E28" s="24"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="24"/>
-      <c r="H28" s="27">
+      <c r="D28" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="24">
+        <f>IF(ISBLANK(D28),"", 0)</f>
         <v>0</v>
       </c>
-      <c r="I28" s="27"/>
-      <c r="J28" s="27"/>
-      <c r="K28" s="27"/>
+      <c r="I28" s="24"/>
+      <c r="J28" s="24"/>
+      <c r="K28" s="24"/>
       <c r="L28" s="14"/>
-      <c r="M28" s="24"/>
-      <c r="N28" s="24"/>
-      <c r="O28" s="24"/>
-      <c r="P28" s="24"/>
-      <c r="Q28" s="28"/>
-      <c r="R28" s="28"/>
-      <c r="S28" s="28"/>
-      <c r="T28" s="28"/>
+      <c r="M28" s="20"/>
+      <c r="N28" s="20"/>
+      <c r="O28" s="20"/>
+      <c r="P28" s="20"/>
+      <c r="Q28" s="21"/>
+      <c r="R28" s="21"/>
+      <c r="S28" s="21"/>
+      <c r="T28" s="21"/>
       <c r="U28" s="14"/>
-      <c r="V28" s="20" t="s">
+      <c r="V28" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="W28" s="20"/>
-      <c r="X28" s="20"/>
-      <c r="Y28" s="20"/>
-      <c r="Z28" s="20" t="s">
+      <c r="W28" s="25"/>
+      <c r="X28" s="25"/>
+      <c r="Y28" s="25"/>
+      <c r="Z28" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="AA28" s="20"/>
-      <c r="AB28" s="20"/>
-      <c r="AC28" s="20"/>
+      <c r="AA28" s="25"/>
+      <c r="AB28" s="25"/>
+      <c r="AC28" s="25"/>
       <c r="AD28" s="14"/>
       <c r="AE28" s="8"/>
       <c r="AF28" s="8"/>
@@ -4537,40 +4538,41 @@
     <row r="29" spans="1:45" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="8"/>
       <c r="C29" s="14"/>
-      <c r="D29" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="E29" s="24"/>
-      <c r="F29" s="24"/>
-      <c r="G29" s="24"/>
-      <c r="H29" s="27">
+      <c r="D29" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="E29" s="20"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="24">
+        <f>IF(ISBLANK(D29),"", 0)</f>
         <v>0</v>
       </c>
-      <c r="I29" s="27"/>
-      <c r="J29" s="27"/>
-      <c r="K29" s="27"/>
+      <c r="I29" s="24"/>
+      <c r="J29" s="24"/>
+      <c r="K29" s="24"/>
       <c r="L29" s="14"/>
-      <c r="M29" s="24"/>
-      <c r="N29" s="24"/>
-      <c r="O29" s="24"/>
-      <c r="P29" s="24"/>
-      <c r="Q29" s="28"/>
-      <c r="R29" s="28"/>
-      <c r="S29" s="28"/>
-      <c r="T29" s="28"/>
+      <c r="M29" s="20"/>
+      <c r="N29" s="20"/>
+      <c r="O29" s="20"/>
+      <c r="P29" s="20"/>
+      <c r="Q29" s="21"/>
+      <c r="R29" s="21"/>
+      <c r="S29" s="21"/>
+      <c r="T29" s="21"/>
       <c r="U29" s="14"/>
-      <c r="V29" s="23">
+      <c r="V29" s="28">
         <v>0</v>
       </c>
-      <c r="W29" s="23"/>
-      <c r="X29" s="23"/>
-      <c r="Y29" s="23"/>
-      <c r="Z29" s="26">
+      <c r="W29" s="28"/>
+      <c r="X29" s="28"/>
+      <c r="Y29" s="28"/>
+      <c r="Z29" s="29">
         <v>0</v>
       </c>
-      <c r="AA29" s="26"/>
-      <c r="AB29" s="26"/>
-      <c r="AC29" s="26"/>
+      <c r="AA29" s="29"/>
+      <c r="AB29" s="29"/>
+      <c r="AC29" s="29"/>
       <c r="AD29" s="14"/>
       <c r="AE29" s="8"/>
       <c r="AF29" s="8"/>
@@ -4976,6 +4978,141 @@
     </row>
   </sheetData>
   <mergeCells count="159">
+    <mergeCell ref="D23:G23"/>
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="D25:G25"/>
+    <mergeCell ref="D26:G26"/>
+    <mergeCell ref="D27:G27"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="D15:K15"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="D16:G16"/>
+    <mergeCell ref="D17:G17"/>
+    <mergeCell ref="D18:G18"/>
+    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="V21:AC21"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="V22:AC22"/>
+    <mergeCell ref="V23:AC23"/>
+    <mergeCell ref="V24:Y24"/>
+    <mergeCell ref="Z24:AC24"/>
+    <mergeCell ref="M17:P17"/>
+    <mergeCell ref="M18:P18"/>
+    <mergeCell ref="M19:P19"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="S17:T17"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="S18:T18"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="S19:T19"/>
+    <mergeCell ref="V26:Y26"/>
+    <mergeCell ref="V28:Y28"/>
+    <mergeCell ref="Z26:AC26"/>
+    <mergeCell ref="Z28:AC28"/>
+    <mergeCell ref="V25:Y25"/>
+    <mergeCell ref="V27:Y27"/>
+    <mergeCell ref="V29:Y29"/>
+    <mergeCell ref="Z25:AC25"/>
+    <mergeCell ref="Z27:AC27"/>
+    <mergeCell ref="Z29:AC29"/>
+    <mergeCell ref="D4:K4"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="M29:P29"/>
+    <mergeCell ref="Q29:T29"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="D29:G29"/>
+    <mergeCell ref="D28:G28"/>
+    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="D11:G11"/>
+    <mergeCell ref="M12:P12"/>
+    <mergeCell ref="M13:P13"/>
+    <mergeCell ref="M15:T15"/>
+    <mergeCell ref="D21:K21"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="M22:T22"/>
+    <mergeCell ref="M23:T23"/>
+    <mergeCell ref="D14:G14"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="S16:T16"/>
+    <mergeCell ref="D5:K5"/>
+    <mergeCell ref="D10:K10"/>
+    <mergeCell ref="M5:T5"/>
+    <mergeCell ref="M10:T10"/>
+    <mergeCell ref="D9:G9"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="M14:P14"/>
+    <mergeCell ref="M16:P16"/>
+    <mergeCell ref="M11:P11"/>
+    <mergeCell ref="H27:K27"/>
+    <mergeCell ref="H28:K28"/>
+    <mergeCell ref="M4:T4"/>
+    <mergeCell ref="M6:P6"/>
+    <mergeCell ref="M7:P7"/>
+    <mergeCell ref="M8:P8"/>
+    <mergeCell ref="M9:P9"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="M26:P26"/>
+    <mergeCell ref="Q26:T26"/>
+    <mergeCell ref="M27:P27"/>
+    <mergeCell ref="Q27:T27"/>
+    <mergeCell ref="M24:P24"/>
+    <mergeCell ref="Q24:T24"/>
+    <mergeCell ref="M25:P25"/>
+    <mergeCell ref="Q25:T25"/>
+    <mergeCell ref="V7:Y7"/>
+    <mergeCell ref="Z7:AC7"/>
+    <mergeCell ref="V8:Y8"/>
+    <mergeCell ref="Z8:AC8"/>
+    <mergeCell ref="V9:Y9"/>
+    <mergeCell ref="Z9:AC9"/>
+    <mergeCell ref="V4:AC4"/>
+    <mergeCell ref="V5:Y5"/>
+    <mergeCell ref="Z5:AC5"/>
+    <mergeCell ref="V6:Y6"/>
+    <mergeCell ref="Z6:AC6"/>
     <mergeCell ref="M28:P28"/>
     <mergeCell ref="Q28:T28"/>
     <mergeCell ref="C2:AD2"/>
@@ -5000,141 +5137,6 @@
     <mergeCell ref="Z11:AC11"/>
     <mergeCell ref="V12:Y12"/>
     <mergeCell ref="Z12:AC12"/>
-    <mergeCell ref="V7:Y7"/>
-    <mergeCell ref="Z7:AC7"/>
-    <mergeCell ref="V8:Y8"/>
-    <mergeCell ref="Z8:AC8"/>
-    <mergeCell ref="V9:Y9"/>
-    <mergeCell ref="Z9:AC9"/>
-    <mergeCell ref="V4:AC4"/>
-    <mergeCell ref="V5:Y5"/>
-    <mergeCell ref="Z5:AC5"/>
-    <mergeCell ref="V6:Y6"/>
-    <mergeCell ref="Z6:AC6"/>
-    <mergeCell ref="M14:P14"/>
-    <mergeCell ref="M16:P16"/>
-    <mergeCell ref="M11:P11"/>
-    <mergeCell ref="H27:K27"/>
-    <mergeCell ref="D23:G23"/>
-    <mergeCell ref="H28:K28"/>
-    <mergeCell ref="M4:T4"/>
-    <mergeCell ref="M6:P6"/>
-    <mergeCell ref="M7:P7"/>
-    <mergeCell ref="M8:P8"/>
-    <mergeCell ref="M9:P9"/>
-    <mergeCell ref="H22:K22"/>
-    <mergeCell ref="H23:K23"/>
-    <mergeCell ref="H24:K24"/>
-    <mergeCell ref="H25:K25"/>
-    <mergeCell ref="H26:K26"/>
-    <mergeCell ref="M26:P26"/>
-    <mergeCell ref="Q26:T26"/>
-    <mergeCell ref="M27:P27"/>
-    <mergeCell ref="Q27:T27"/>
-    <mergeCell ref="M24:P24"/>
-    <mergeCell ref="Q24:T24"/>
-    <mergeCell ref="M25:P25"/>
-    <mergeCell ref="Q25:T25"/>
-    <mergeCell ref="D5:K5"/>
-    <mergeCell ref="D10:K10"/>
-    <mergeCell ref="M5:T5"/>
-    <mergeCell ref="M10:T10"/>
-    <mergeCell ref="D9:G9"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="S13:T13"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="S16:T16"/>
-    <mergeCell ref="D4:K4"/>
-    <mergeCell ref="D6:G6"/>
-    <mergeCell ref="H29:K29"/>
-    <mergeCell ref="M29:P29"/>
-    <mergeCell ref="Q29:T29"/>
-    <mergeCell ref="D12:G12"/>
-    <mergeCell ref="D13:G13"/>
-    <mergeCell ref="D26:G26"/>
-    <mergeCell ref="D29:G29"/>
-    <mergeCell ref="D28:G28"/>
-    <mergeCell ref="D27:G27"/>
-    <mergeCell ref="D7:G7"/>
-    <mergeCell ref="D8:G8"/>
-    <mergeCell ref="D11:G11"/>
-    <mergeCell ref="D25:G25"/>
-    <mergeCell ref="D24:G24"/>
-    <mergeCell ref="M12:P12"/>
-    <mergeCell ref="M13:P13"/>
-    <mergeCell ref="M15:T15"/>
-    <mergeCell ref="D21:K21"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="M22:T22"/>
-    <mergeCell ref="M23:T23"/>
-    <mergeCell ref="D14:G14"/>
-    <mergeCell ref="V26:Y26"/>
-    <mergeCell ref="V28:Y28"/>
-    <mergeCell ref="Z26:AC26"/>
-    <mergeCell ref="Z28:AC28"/>
-    <mergeCell ref="V25:Y25"/>
-    <mergeCell ref="V27:Y27"/>
-    <mergeCell ref="V29:Y29"/>
-    <mergeCell ref="Z25:AC25"/>
-    <mergeCell ref="Z27:AC27"/>
-    <mergeCell ref="Z29:AC29"/>
-    <mergeCell ref="V22:AC22"/>
-    <mergeCell ref="V23:AC23"/>
-    <mergeCell ref="V24:Y24"/>
-    <mergeCell ref="Z24:AC24"/>
-    <mergeCell ref="M17:P17"/>
-    <mergeCell ref="M18:P18"/>
-    <mergeCell ref="M19:P19"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="S17:T17"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="S18:T18"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="S19:T19"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="D16:G16"/>
-    <mergeCell ref="D17:G17"/>
-    <mergeCell ref="D18:G18"/>
-    <mergeCell ref="D19:G19"/>
-    <mergeCell ref="V21:AC21"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="D15:K15"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="J14:K14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="20" orientation="portrait" r:id="rId1"/>
